--- a/Spec/App/APP_Tutorial.xlsx
+++ b/Spec/App/APP_Tutorial.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashimotokou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashimotokou/Desktop/Git/Documents/Spec/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="チュートリアル概要" sheetId="6" r:id="rId1"/>
     <sheet name="チュートリアル画面遷移" sheetId="7" r:id="rId2"/>
-    <sheet name="チュートリアル種類" sheetId="1" r:id="rId3"/>
+    <sheet name="チュートリアルコース種類" sheetId="1" r:id="rId3"/>
     <sheet name="チュートリアル１" sheetId="2" r:id="rId4"/>
     <sheet name="チュートリアル２" sheetId="3" r:id="rId5"/>
     <sheet name="チュートリアル３" sheetId="4" r:id="rId6"/>
@@ -85,6 +85,834 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>988060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1460500" y="939800"/>
+          <a:ext cx="1788160" cy="1788160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3378200" y="990600"/>
+          <a:ext cx="3406140" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>チュートリアルコース１</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>「進んでみよう」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="2 ブイ範囲"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1168400" y="787400"/>
+          <a:ext cx="1778000" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3111500" y="876300"/>
+          <a:ext cx="3406140" cy="1050290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>チュートリアルコース２</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>「曲がろう」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1155700" y="533400"/>
+          <a:ext cx="1803400" cy="1803400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3086100" y="584200"/>
+          <a:ext cx="3406140" cy="866140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>チュートリアルコース３</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>「アイテムを使おう」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>・アイテムは加速のみ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="4　ブイ範囲"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1168400" y="520700"/>
+          <a:ext cx="1778000" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3073400" y="533400"/>
+          <a:ext cx="3406140" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>チュートリアルコース４</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>「実際にレースしよう」</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>なし</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>・アイテムは加速のみ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>・３のポイントは左右どちらからでも通ってよい</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>で緑の範囲を通ったら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>は緑　赤の範囲なら赤</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>・タイムアタックモード付</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -403,6 +1231,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -416,6 +1245,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -429,6 +1259,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -436,11 +1267,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>